--- a/files/Matières/Emplois du temps/T/Things to do for the Christmas hollidays (15-28 02 2021).xlsx
+++ b/files/Matières/Emplois du temps/T/Things to do for the Christmas hollidays (15-28 02 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\Emplois du temps\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD04871-E90B-44D0-9DF2-519A2CBDFB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1531CE5F-A998-4C35-93B0-9046D33BC923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{F942BE32-1E0E-432C-BF16-E20E08D13A75}"/>
   </bookViews>
@@ -150,31 +150,31 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,52 +492,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99A257D-1F9E-4A0D-B1D5-1A211D0C5FFD}">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="2"/>
+    <col min="1" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -567,59 +567,59 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
@@ -689,26 +689,27 @@
       <c r="K24" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:F14"/>
@@ -716,12 +717,11 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
